--- a/CodeSystem-pacio-cat-cs.xlsx
+++ b/CodeSystem-pacio-cat-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T08:45:55-07:00</t>
+    <t>2021-09-23T10:50:45-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
